--- a/zp/data_files/zp_excel.xlsx
+++ b/zp/data_files/zp_excel.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="01_09_2023" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="01_08_2023" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="01_10_2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="01_09_2023" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="01_08_2023" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -18,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -39,6 +40,13 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -69,18 +77,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -452,54 +463,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.171875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="22.04" customWidth="1" style="3" min="1" max="1"/>
+    <col width="20.28" customWidth="1" style="3" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Группы</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>02_09_2023</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>03_09_2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>01_10_2023</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>03_10_2023</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>04_10_2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="4">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Django 2</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Python pro 23</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Js1</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="4">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Python junior 1</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="4">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Django 1</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Django 2</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="4">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -521,290 +575,692 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
+  <dimension ref="A1:AE12"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE1" activeCellId="0" sqref="AE1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.171875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="13.5" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Группы</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>02_09_2023</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>03_09_2023</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>04_09_2023</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>05_09_2023</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>06_09_2023</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>07_09_2023</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>08_09_2023</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>09_09_2023</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>10_09_2023</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>11_09_2023</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>12_09_2023</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>13_09_2023</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>14_09_2023</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>15_09_2023</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>16_09_2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>17_09_2023</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>18_09_2023</t>
+        </is>
+      </c>
+      <c r="S1" s="3" t="inlineStr">
+        <is>
+          <t>19_09_2023</t>
+        </is>
+      </c>
+      <c r="T1" s="3" t="inlineStr">
+        <is>
+          <t>20_09_2023</t>
+        </is>
+      </c>
+      <c r="U1" s="3" t="inlineStr">
+        <is>
+          <t>21_09_2023</t>
+        </is>
+      </c>
+      <c r="V1" s="3" t="inlineStr">
+        <is>
+          <t>22_09_2023</t>
+        </is>
+      </c>
+      <c r="W1" s="3" t="inlineStr">
+        <is>
+          <t>23_09_2023</t>
+        </is>
+      </c>
+      <c r="X1" s="3" t="inlineStr">
+        <is>
+          <t>24_09_2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="3" t="inlineStr">
+        <is>
+          <t>25_09_2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>26_09_2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="3" t="inlineStr">
+        <is>
+          <t>27_09_2023</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>28_09_2023</t>
+        </is>
+      </c>
+      <c r="AC1" s="3" t="inlineStr">
+        <is>
+          <t>29_09_2023</t>
+        </is>
+      </c>
+      <c r="AD1" s="3" t="inlineStr">
+        <is>
+          <t>30_09_2023</t>
+        </is>
+      </c>
+      <c r="AE1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="4">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Django 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="I2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="R2" s="3" t="n"/>
+      <c r="S2" s="3" t="n"/>
+      <c r="W2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Django 2</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="R3" s="3" t="n"/>
+      <c r="W3" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="3" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Python pro инд. 3 (онлайн)</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n"/>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="n"/>
+      <c r="S4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="4">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Python pro 23</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n"/>
+      <c r="I5" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="4">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Js1</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="n"/>
+      <c r="T6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="4">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Django 3 (онлайн, инд.)</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="4">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Python junior 7</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="R8" s="3" t="n"/>
+      <c r="S8" s="3" t="n"/>
+      <c r="W8" s="3" t="n"/>
+      <c r="X8" s="3" t="n"/>
+      <c r="Y8" s="3" t="n"/>
+      <c r="AA8" s="3" t="n"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="4">
+      <c r="A9" s="5" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="R9" s="3" t="n"/>
+      <c r="Z9" s="3" t="n"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" s="4">
+      <c r="A10" s="3" t="n"/>
+      <c r="AA10" s="3" t="n"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="4">
+      <c r="A11" s="3" t="n"/>
+      <c r="AA11" s="3" t="n"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="4">
+      <c r="A12" s="3" t="n"/>
+      <c r="AA12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="4"/>
+    <row r="14" ht="13.5" customHeight="1" s="4"/>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Y10" activeCellId="0" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Группы</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>01_08_2023</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>02_08_2023</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>03_08_2023</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>04_08_2023</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>05_08_2023</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>06_08_2023</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>07_08_2023</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>08_08_2023</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>09_08_2023</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>10_08_2023</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>12_08_2023</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>13_08_2023</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>14_08_2023</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>15_08_2023</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>19_08_2023</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>20_08_2023</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>21_08_2023</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>22_08_2023</t>
         </is>
       </c>
-      <c r="T1" s="4" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>24_08_2023</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>26_08_2023</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>27_08_2023</t>
         </is>
       </c>
-      <c r="W1" s="4" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>28_08_2023</t>
         </is>
       </c>
-      <c r="X1" s="4" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>29_08_2023</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="4">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Python pro инд. 3</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Python pro инд. 1</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="4" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Python pro 16</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="F4" s="4" t="n">
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="F4" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="n"/>
-      <c r="L4" s="4" t="n">
+      <c r="H4" s="3" t="n"/>
+      <c r="L4" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="4">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Python pro инд. 2</t>
         </is>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="3">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="4">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Django 2</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="Q6" s="4" t="n">
+      <c r="Q6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="R6" s="4" t="n">
+      <c r="R6" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="V6" s="4" t="n">
+      <c r="V6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="W6" s="4" t="n">
+      <c r="W6" s="3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="3">
-      <c r="A7" s="4" t="inlineStr">
+    <row r="7" ht="13.5" customHeight="1" s="4">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Django 1</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="H7" s="4" t="n"/>
-      <c r="M7" s="4" t="n">
+      <c r="H7" s="3" t="n"/>
+      <c r="M7" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="U7" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="V7" s="4" t="n">
+      <c r="V7" s="3" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="3">
-      <c r="A8" s="4" t="inlineStr">
+    <row r="8" ht="13.5" customHeight="1" s="4">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Python start 6</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="3"/>
-    <row r="10" ht="13.5" customHeight="1" s="3"/>
-    <row r="11" ht="13.5" customHeight="1" s="3"/>
+    <row r="9" ht="13.5" customHeight="1" s="4"/>
+    <row r="10" ht="13.5" customHeight="1" s="4"/>
+    <row r="11" ht="13.5" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/zp/data_files/zp_excel.xlsx
+++ b/zp/data_files/zp_excel.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>04_10_2023</t>
+          <t>05_10_2023</t>
         </is>
       </c>
     </row>
@@ -526,11 +526,14 @@
       <c r="C4" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D4" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="4">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Python junior 1</t>
+          <t>Python junior 5</t>
         </is>
       </c>
       <c r="C5" s="3" t="n"/>
@@ -541,12 +544,12 @@
     <row r="6" ht="12.75" customHeight="1" s="4">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Django 1</t>
+          <t>Django 3 (онлайн, инд.)</t>
         </is>
       </c>
       <c r="C6" s="3" t="n"/>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="4">
